--- a/PartList.xlsx
+++ b/PartList.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\lab-05-assembling-the-quadcopter-schematic-xuefei_zhiye\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="48940" windowHeight="28960" tabRatio="500"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="48945" windowHeight="28965" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Quadcopter.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Quadcopter" localSheetId="0">Quadcopter.csv!$A$1:$G$34</definedName>
+    <definedName name="Quadcopter" localSheetId="0">Quadcopter.csv!$A$1:$G$35</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -77,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="149">
   <si>
     <t>LTST-C170EKT</t>
   </si>
@@ -509,6 +514,21 @@
   </si>
   <si>
     <t>2 SMDs (one negative, one positive) 2-3mm on a side 2 mm between them.</t>
+  </si>
+  <si>
+    <t>RGB Led</t>
+  </si>
+  <si>
+    <t>http://www.qt-brightek.com/datasheet/QBLP679E-RGB.pdf</t>
+  </si>
+  <si>
+    <t>1516-1131-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QT Brightek (QTB) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QBLP679E-RGB </t>
   </si>
 </sst>
 </file>
@@ -643,6 +663,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -651,18 +679,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I34" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
-  <autoFilter ref="A1:I34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I35" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I35"/>
   <sortState ref="A2:G47">
     <sortCondition ref="D1:D47"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Description" dataDxfId="10"/>
-    <tableColumn id="2" name="DATASHEET" dataDxfId="9"/>
-    <tableColumn id="3" name="DIST" dataDxfId="8"/>
-    <tableColumn id="4" name="DISTPN" dataDxfId="7"/>
-    <tableColumn id="5" name="MFR" dataDxfId="6"/>
-    <tableColumn id="6" name="MPN" dataDxfId="5"/>
+    <tableColumn id="1" name="Description" dataDxfId="8"/>
+    <tableColumn id="2" name="DATASHEET" dataDxfId="7"/>
+    <tableColumn id="3" name="DIST" dataDxfId="6"/>
+    <tableColumn id="4" name="DISTPN" dataDxfId="5"/>
+    <tableColumn id="5" name="MFR" dataDxfId="4"/>
+    <tableColumn id="6" name="MPN" dataDxfId="3"/>
     <tableColumn id="7" name="VALUE" dataDxfId="2"/>
     <tableColumn id="9" name="Lab04" dataDxfId="1"/>
     <tableColumn id="10" name="Lab04a" dataDxfId="0"/>
@@ -993,25 +1021,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.1640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="80.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1097,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1095,7 +1123,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
@@ -1124,7 +1152,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -1150,7 +1178,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -1176,7 +1204,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
@@ -1202,7 +1230,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -1228,7 +1256,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
@@ -1254,7 +1282,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -1277,7 +1305,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1306,7 +1334,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +1360,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1358,7 +1386,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1412,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1438,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1464,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,7 +1490,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1488,7 +1516,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1514,7 +1542,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1540,7 +1568,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1566,7 +1594,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>126</v>
       </c>
@@ -1592,7 +1620,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -1615,7 +1643,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -1638,7 +1666,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -1661,7 +1689,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -1684,7 +1712,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1707,7 +1735,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1758,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>117</v>
       </c>
@@ -1753,7 +1781,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -1779,7 +1807,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>136</v>
       </c>
@@ -1802,7 +1830,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
@@ -1831,7 +1859,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>140</v>
       </c>
@@ -1846,7 +1874,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>141</v>
       </c>
@@ -1861,6 +1889,26 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
